--- a/rafiMavenStock/TestOutput/OutputSheet.xlsx
+++ b/rafiMavenStock/TestOutput/OutputSheet.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226" filterPrivacy="1"/>
   <bookViews>
-    <workbookView windowHeight="8025" windowWidth="13980" xWindow="0" yWindow="1155"/>
+    <workbookView windowHeight="3390" windowWidth="10680" xWindow="0" yWindow="2430"/>
   </bookViews>
   <sheets>
     <sheet name="MasterTestCases" r:id="rId1" sheetId="1"/>
@@ -12,12 +12,13 @@
     <sheet name="SupplierCreation" r:id="rId3" sheetId="3"/>
     <sheet name="StockCategories" r:id="rId4" sheetId="4"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:I10"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="125">
   <si>
     <t>Description</t>
   </si>
@@ -397,9 +398,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="49">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -445,228 +446,6 @@
       <name val="Calibri"/>
       <sz val="11.0"/>
       <color indexed="12"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
       <b val="true"/>
     </font>
     <font>
@@ -730,7 +509,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="13">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
     <xf applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0"/>
@@ -744,43 +523,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
@@ -788,6 +530,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -866,6 +613,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -900,6 +648,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1075,20 +824,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" bestFit="true" customWidth="true" width="16.0" collapsed="false"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="15.42578125" collapsed="false"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="15.453125" collapsed="false"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>35</v>
       </c>
@@ -1102,7 +851,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>38</v>
       </c>
@@ -1116,7 +865,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>40</v>
       </c>
@@ -1126,11 +875,11 @@
       <c r="C3" t="s">
         <v>117</v>
       </c>
-      <c r="D3" t="s" s="48">
+      <c r="D3" t="s" s="11">
         <v>124</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>113</v>
       </c>
@@ -1140,7 +889,7 @@
       <c r="C4" t="s">
         <v>94</v>
       </c>
-      <c r="D4" t="s" s="49">
+      <c r="D4" t="s" s="12">
         <v>122</v>
       </c>
     </row>
@@ -1150,23 +899,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="18.140625" collapsed="false"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="15.85546875" collapsed="false"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="12.7109375" collapsed="false"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="20.5703125" collapsed="false"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="9.7109375" collapsed="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="18.1796875" collapsed="false"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="15.81640625" collapsed="false"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="12.7265625" collapsed="false"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="20.54296875" collapsed="false"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="9.7265625" collapsed="false"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1186,7 +935,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1203,7 +952,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -1220,7 +969,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -1237,7 +986,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -1254,7 +1003,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -1271,7 +1020,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -1288,7 +1037,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -1305,7 +1054,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -1322,7 +1071,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -1339,7 +1088,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -1356,7 +1105,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>30</v>
       </c>
@@ -1373,7 +1122,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>32</v>
       </c>
@@ -1390,7 +1139,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>33</v>
       </c>
@@ -1413,23 +1162,23 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="33.28515625" collapsed="false"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="21.7109375" collapsed="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="33.26953125" collapsed="false"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="21.7265625" collapsed="false"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="18.0" collapsed="false"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="78.85546875" collapsed="false"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="20.85546875" collapsed="false"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="78.81640625" collapsed="false"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="20.81640625" collapsed="false"/>
   </cols>
   <sheetData>
-    <row customFormat="1" ht="21" r="1" s="2" spans="1:6">
+    <row customFormat="1" ht="21" r="1" s="2" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1449,7 +1198,7 @@
         <v>5</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="2" s="1" spans="1:6">
+    <row customFormat="1" ht="21" r="2" s="1" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
@@ -1469,7 +1218,7 @@
         <v>123</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="3" s="1" spans="1:6">
+    <row customFormat="1" ht="21" r="3" s="1" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
@@ -1489,7 +1238,7 @@
         <v>123</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="4" s="1" spans="1:6">
+    <row customFormat="1" ht="21" r="4" s="1" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A4" s="4" t="s">
         <v>11</v>
       </c>
@@ -1506,10 +1255,10 @@
         <v>10</v>
       </c>
       <c r="F4" t="s" s="10">
-        <v>123</v>
-      </c>
-    </row>
-    <row customFormat="1" ht="21" r="5" s="1" spans="1:6">
+        <v>124</v>
+      </c>
+    </row>
+    <row customFormat="1" ht="21" r="5" s="1" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A5" s="4" t="s">
         <v>15</v>
       </c>
@@ -1525,11 +1274,9 @@
       <c r="E5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F5" t="s" s="11">
-        <v>123</v>
-      </c>
-    </row>
-    <row customFormat="1" ht="21" r="6" s="1" spans="1:6">
+      <c r="F5" s="4"/>
+    </row>
+    <row customFormat="1" ht="21" r="6" s="1" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A6" s="4" t="s">
         <v>18</v>
       </c>
@@ -1545,11 +1292,9 @@
       <c r="E6" s="4">
         <v>10</v>
       </c>
-      <c r="F6" t="s" s="12">
-        <v>123</v>
-      </c>
-    </row>
-    <row customFormat="1" ht="21" r="7" s="1" spans="1:6">
+      <c r="F6" s="4"/>
+    </row>
+    <row customFormat="1" ht="21" r="7" s="1" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A7" s="4" t="s">
         <v>21</v>
       </c>
@@ -1565,11 +1310,9 @@
       <c r="E7" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F7" t="s" s="13">
-        <v>123</v>
-      </c>
-    </row>
-    <row customFormat="1" ht="21" r="8" s="1" spans="1:6">
+      <c r="F7" s="4"/>
+    </row>
+    <row customFormat="1" ht="21" r="8" s="1" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A8" s="4" t="s">
         <v>18</v>
       </c>
@@ -1585,11 +1328,9 @@
       <c r="E8" s="4">
         <v>10</v>
       </c>
-      <c r="F8" t="s" s="14">
-        <v>123</v>
-      </c>
-    </row>
-    <row customFormat="1" ht="21" r="9" s="1" spans="1:6">
+      <c r="F8" s="4"/>
+    </row>
+    <row customFormat="1" ht="21" r="9" s="1" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A9" s="4" t="s">
         <v>25</v>
       </c>
@@ -1605,11 +1346,9 @@
       <c r="E9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F9" t="s" s="15">
-        <v>123</v>
-      </c>
-    </row>
-    <row customFormat="1" ht="21" r="10" s="1" spans="1:6">
+      <c r="F9" s="4"/>
+    </row>
+    <row customFormat="1" ht="21" r="10" s="1" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A10" s="4" t="s">
         <v>42</v>
       </c>
@@ -1625,11 +1364,9 @@
       <c r="E10" s="4">
         <v>10</v>
       </c>
-      <c r="F10" t="s" s="16">
-        <v>123</v>
-      </c>
-    </row>
-    <row customFormat="1" ht="21" r="11" s="1" spans="1:6">
+      <c r="F10" s="4"/>
+    </row>
+    <row customFormat="1" ht="21" r="11" s="1" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A11" s="4" t="s">
         <v>44</v>
       </c>
@@ -1645,11 +1382,9 @@
       <c r="E11" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F11" t="s" s="17">
-        <v>123</v>
-      </c>
-    </row>
-    <row customFormat="1" ht="21" r="12" s="1" spans="1:6">
+      <c r="F11" s="4"/>
+    </row>
+    <row customFormat="1" ht="21" r="12" s="1" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A12" s="4" t="s">
         <v>45</v>
       </c>
@@ -1665,11 +1400,9 @@
       <c r="E12" s="4">
         <v>10</v>
       </c>
-      <c r="F12" t="s" s="18">
-        <v>123</v>
-      </c>
-    </row>
-    <row customFormat="1" ht="21" r="13" s="1" spans="1:6">
+      <c r="F12" s="4"/>
+    </row>
+    <row customFormat="1" ht="21" r="13" s="1" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A13" s="4" t="s">
         <v>47</v>
       </c>
@@ -1685,11 +1418,9 @@
       <c r="E13" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F13" t="s" s="19">
-        <v>123</v>
-      </c>
-    </row>
-    <row customFormat="1" ht="21" r="14" s="1" spans="1:6">
+      <c r="F13" s="4"/>
+    </row>
+    <row customFormat="1" ht="21" r="14" s="1" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A14" s="4" t="s">
         <v>91</v>
       </c>
@@ -1705,11 +1436,9 @@
       <c r="E14" s="4">
         <v>10</v>
       </c>
-      <c r="F14" t="s" s="20">
-        <v>123</v>
-      </c>
-    </row>
-    <row customFormat="1" ht="21" r="15" s="1" spans="1:6">
+      <c r="F14" s="4"/>
+    </row>
+    <row customFormat="1" ht="21" r="15" s="1" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A15" s="4" t="s">
         <v>48</v>
       </c>
@@ -1725,11 +1454,9 @@
       <c r="E15" s="4">
         <v>10</v>
       </c>
-      <c r="F15" t="s" s="21">
-        <v>123</v>
-      </c>
-    </row>
-    <row customFormat="1" ht="21" r="16" s="1" spans="1:6">
+      <c r="F15" s="4"/>
+    </row>
+    <row customFormat="1" ht="21" r="16" s="1" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A16" s="4" t="s">
         <v>120</v>
       </c>
@@ -1745,11 +1472,9 @@
       <c r="E16" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F16" t="s" s="22">
-        <v>123</v>
-      </c>
-    </row>
-    <row customFormat="1" ht="21" r="17" s="1" spans="1:6">
+      <c r="F16" s="4"/>
+    </row>
+    <row customFormat="1" ht="21" r="17" s="1" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A17" s="4" t="s">
         <v>50</v>
       </c>
@@ -1765,11 +1490,9 @@
       <c r="E17" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="F17" t="s" s="23">
-        <v>123</v>
-      </c>
-    </row>
-    <row customFormat="1" ht="21" r="18" s="1" spans="1:6">
+      <c r="F17" s="4"/>
+    </row>
+    <row customFormat="1" ht="21" r="18" s="1" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A18" s="4" t="s">
         <v>52</v>
       </c>
@@ -1785,11 +1508,9 @@
       <c r="E18" s="4">
         <v>10</v>
       </c>
-      <c r="F18" t="s" s="24">
-        <v>123</v>
-      </c>
-    </row>
-    <row customFormat="1" ht="21" r="19" s="1" spans="1:6">
+      <c r="F18" s="4"/>
+    </row>
+    <row customFormat="1" ht="21" r="19" s="1" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A19" s="4" t="s">
         <v>54</v>
       </c>
@@ -1805,11 +1526,9 @@
       <c r="E19" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="F19" t="s" s="25">
-        <v>123</v>
-      </c>
-    </row>
-    <row customFormat="1" ht="21" r="20" s="1" spans="1:6">
+      <c r="F19" s="4"/>
+    </row>
+    <row customFormat="1" ht="21" r="20" s="1" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A20" s="4" t="s">
         <v>56</v>
       </c>
@@ -1825,11 +1544,9 @@
       <c r="E20" s="4">
         <v>10</v>
       </c>
-      <c r="F20" t="s" s="26">
-        <v>123</v>
-      </c>
-    </row>
-    <row customFormat="1" ht="21" r="21" s="1" spans="1:6">
+      <c r="F20" s="4"/>
+    </row>
+    <row customFormat="1" ht="21" r="21" s="1" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A21" s="4" t="s">
         <v>58</v>
       </c>
@@ -1845,11 +1562,9 @@
       <c r="E21" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="F21" t="s" s="27">
-        <v>123</v>
-      </c>
-    </row>
-    <row customFormat="1" ht="21" r="22" s="1" spans="1:6">
+      <c r="F21" s="4"/>
+    </row>
+    <row customFormat="1" ht="21" r="22" s="1" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A22" s="4" t="s">
         <v>60</v>
       </c>
@@ -1865,11 +1580,9 @@
       <c r="E22" s="4">
         <v>10</v>
       </c>
-      <c r="F22" t="s" s="28">
-        <v>123</v>
-      </c>
-    </row>
-    <row customFormat="1" ht="21" r="23" s="1" spans="1:6">
+      <c r="F22" s="4"/>
+    </row>
+    <row customFormat="1" ht="21" r="23" s="1" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A23" s="4" t="s">
         <v>62</v>
       </c>
@@ -1885,11 +1598,9 @@
       <c r="E23" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="F23" t="s" s="29">
-        <v>123</v>
-      </c>
-    </row>
-    <row customFormat="1" ht="21" r="24" s="1" spans="1:6">
+      <c r="F23" s="4"/>
+    </row>
+    <row customFormat="1" ht="21" r="24" s="1" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A24" s="4" t="s">
         <v>64</v>
       </c>
@@ -1905,11 +1616,9 @@
       <c r="E24" s="4">
         <v>10</v>
       </c>
-      <c r="F24" t="s" s="30">
-        <v>123</v>
-      </c>
-    </row>
-    <row customFormat="1" ht="21" r="25" s="1" spans="1:6">
+      <c r="F24" s="4"/>
+    </row>
+    <row customFormat="1" ht="21" r="25" s="1" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A25" s="4" t="s">
         <v>67</v>
       </c>
@@ -1925,11 +1634,9 @@
       <c r="E25" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="F25" t="s" s="31">
-        <v>123</v>
-      </c>
-    </row>
-    <row customFormat="1" ht="21" r="26" s="1" spans="1:6">
+      <c r="F25" s="4"/>
+    </row>
+    <row customFormat="1" ht="21" r="26" s="1" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A26" s="4" t="s">
         <v>68</v>
       </c>
@@ -1945,11 +1652,9 @@
       <c r="E26" s="4">
         <v>10</v>
       </c>
-      <c r="F26" t="s" s="32">
-        <v>123</v>
-      </c>
-    </row>
-    <row customFormat="1" ht="21" r="27" s="1" spans="1:6">
+      <c r="F26" s="4"/>
+    </row>
+    <row customFormat="1" ht="21" r="27" s="1" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A27" s="4" t="s">
         <v>70</v>
       </c>
@@ -1965,11 +1670,9 @@
       <c r="E27" s="4">
         <v>111111111</v>
       </c>
-      <c r="F27" t="s" s="33">
-        <v>123</v>
-      </c>
-    </row>
-    <row customFormat="1" ht="21" r="28" s="1" spans="1:6">
+      <c r="F27" s="4"/>
+    </row>
+    <row customFormat="1" ht="21" r="28" s="1" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A28" s="4" t="s">
         <v>71</v>
       </c>
@@ -1985,11 +1688,9 @@
       <c r="E28" s="4">
         <v>10</v>
       </c>
-      <c r="F28" t="s" s="34">
-        <v>123</v>
-      </c>
-    </row>
-    <row customFormat="1" ht="21" r="29" s="1" spans="1:6">
+      <c r="F28" s="4"/>
+    </row>
+    <row customFormat="1" ht="21" r="29" s="1" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A29" s="4" t="s">
         <v>73</v>
       </c>
@@ -2005,11 +1706,9 @@
       <c r="E29" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="F29" t="s" s="35">
-        <v>123</v>
-      </c>
-    </row>
-    <row customFormat="1" ht="21" r="30" s="1" spans="1:6">
+      <c r="F29" s="4"/>
+    </row>
+    <row customFormat="1" ht="21" r="30" s="1" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A30" s="4" t="s">
         <v>75</v>
       </c>
@@ -2025,11 +1724,9 @@
       <c r="E30" s="4">
         <v>10</v>
       </c>
-      <c r="F30" t="s" s="36">
-        <v>123</v>
-      </c>
-    </row>
-    <row customFormat="1" ht="21" r="31" s="1" spans="1:6">
+      <c r="F30" s="4"/>
+    </row>
+    <row customFormat="1" ht="21" r="31" s="1" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A31" s="4" t="s">
         <v>77</v>
       </c>
@@ -2045,11 +1742,9 @@
       <c r="E31" s="4">
         <v>222222222</v>
       </c>
-      <c r="F31" t="s" s="37">
-        <v>123</v>
-      </c>
-    </row>
-    <row customFormat="1" ht="21" r="32" s="1" spans="1:6">
+      <c r="F31" s="4"/>
+    </row>
+    <row customFormat="1" ht="21" r="32" s="1" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A32" s="4" t="s">
         <v>78</v>
       </c>
@@ -2065,11 +1760,9 @@
       <c r="E32" s="4">
         <v>10</v>
       </c>
-      <c r="F32" t="s" s="38">
-        <v>123</v>
-      </c>
-    </row>
-    <row customFormat="1" ht="21" r="33" s="1" spans="1:6">
+      <c r="F32" s="4"/>
+    </row>
+    <row customFormat="1" ht="21" r="33" s="1" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A33" s="4" t="s">
         <v>80</v>
       </c>
@@ -2085,11 +1778,9 @@
       <c r="E33" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="F33" t="s" s="39">
-        <v>123</v>
-      </c>
-    </row>
-    <row customFormat="1" ht="21" r="34" s="1" spans="1:6">
+      <c r="F33" s="4"/>
+    </row>
+    <row customFormat="1" ht="21" r="34" s="1" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A34" s="4" t="s">
         <v>118</v>
       </c>
@@ -2105,11 +1796,9 @@
       <c r="E34" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F34" t="s" s="40">
-        <v>123</v>
-      </c>
-    </row>
-    <row customFormat="1" ht="21" r="35" s="1" spans="1:6">
+      <c r="F34" s="4"/>
+    </row>
+    <row customFormat="1" ht="21" r="35" s="1" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A35" s="4" t="s">
         <v>45</v>
       </c>
@@ -2125,11 +1814,9 @@
       <c r="E35" s="4">
         <v>10</v>
       </c>
-      <c r="F35" t="s" s="41">
-        <v>123</v>
-      </c>
-    </row>
-    <row customFormat="1" ht="21" r="36" s="1" spans="1:6">
+      <c r="F35" s="4"/>
+    </row>
+    <row customFormat="1" ht="21" r="36" s="1" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A36" s="4" t="s">
         <v>84</v>
       </c>
@@ -2145,11 +1832,9 @@
       <c r="E36" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F36" t="s" s="42">
-        <v>123</v>
-      </c>
-    </row>
-    <row customFormat="1" ht="21" r="37" s="1" spans="1:6">
+      <c r="F36" s="4"/>
+    </row>
+    <row customFormat="1" ht="21" r="37" s="1" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A37" s="4" t="s">
         <v>85</v>
       </c>
@@ -2165,11 +1850,9 @@
       <c r="E37" s="4">
         <v>10</v>
       </c>
-      <c r="F37" t="s" s="43">
-        <v>123</v>
-      </c>
-    </row>
-    <row customFormat="1" ht="21" r="38" s="1" spans="1:6">
+      <c r="F37" s="4"/>
+    </row>
+    <row customFormat="1" ht="21" r="38" s="1" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A38" s="4" t="s">
         <v>87</v>
       </c>
@@ -2185,11 +1868,9 @@
       <c r="E38" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F38" t="s" s="44">
-        <v>123</v>
-      </c>
-    </row>
-    <row customFormat="1" ht="21" r="39" s="1" spans="1:6">
+      <c r="F38" s="4"/>
+    </row>
+    <row customFormat="1" ht="21" r="39" s="1" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A39" s="4" t="s">
         <v>88</v>
       </c>
@@ -2205,11 +1886,9 @@
       <c r="E39" s="4">
         <v>10</v>
       </c>
-      <c r="F39" t="s" s="45">
-        <v>123</v>
-      </c>
-    </row>
-    <row customFormat="1" ht="21" r="40" s="1" spans="1:6">
+      <c r="F39" s="4"/>
+    </row>
+    <row customFormat="1" ht="21" r="40" s="1" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A40" s="4" t="s">
         <v>90</v>
       </c>
@@ -2225,11 +1904,9 @@
       <c r="E40" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F40" t="s" s="46">
-        <v>123</v>
-      </c>
-    </row>
-    <row ht="18.75" r="41" spans="1:6">
+      <c r="F40" s="4"/>
+    </row>
+    <row ht="18.5" r="41" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A41" s="4" t="s">
         <v>95</v>
       </c>
@@ -2245,9 +1922,7 @@
       <c r="E41" s="4">
         <v>6</v>
       </c>
-      <c r="F41" t="s" s="47">
-        <v>124</v>
-      </c>
+      <c r="F41" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2259,23 +1934,23 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="22.85546875" collapsed="false"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="21.7109375" collapsed="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="22.81640625" collapsed="false"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="21.7265625" collapsed="false"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="18.0" collapsed="false"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="79.85546875" collapsed="false"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="17.5703125" collapsed="false"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="79.81640625" collapsed="false"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="17.54296875" collapsed="false"/>
   </cols>
   <sheetData>
-    <row customFormat="1" ht="21" r="1" s="2" spans="1:6">
+    <row customFormat="1" ht="21" r="1" s="2" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2295,7 +1970,7 @@
         <v>5</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="2" s="1" spans="1:6">
+    <row customFormat="1" ht="21" r="2" s="1" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -2312,7 +1987,7 @@
         <v>8</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="3" s="1" spans="1:6">
+    <row customFormat="1" ht="21" r="3" s="1" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -2329,7 +2004,7 @@
         <v>8</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="4" s="1" spans="1:6">
+    <row customFormat="1" ht="21" r="4" s="1" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -2346,7 +2021,7 @@
         <v>10</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="5" s="1" spans="1:6">
+    <row customFormat="1" ht="21" r="5" s="1" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
@@ -2363,7 +2038,7 @@
         <v>17</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="6" s="1" spans="1:6">
+    <row customFormat="1" ht="21" r="6" s="1" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
@@ -2380,7 +2055,7 @@
         <v>10</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="7" s="1" spans="1:6">
+    <row customFormat="1" ht="21" r="7" s="1" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A7" s="1" t="s">
         <v>21</v>
       </c>
@@ -2397,7 +2072,7 @@
         <v>22</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="8" s="1" spans="1:6">
+    <row customFormat="1" ht="21" r="8" s="1" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A8" s="1" t="s">
         <v>97</v>
       </c>
@@ -2414,7 +2089,7 @@
         <v>8</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="9" s="1" spans="1:6">
+    <row customFormat="1" ht="21" r="9" s="1" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A9" s="1" t="s">
         <v>98</v>
       </c>
@@ -2431,7 +2106,7 @@
         <v>10</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="10" s="1" spans="1:6">
+    <row customFormat="1" ht="21" r="10" s="1" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A10" s="1" t="s">
         <v>100</v>
       </c>
@@ -2448,7 +2123,7 @@
         <v>8</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="11" s="1" spans="1:6">
+    <row customFormat="1" ht="21" r="11" s="1" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A11" s="1" t="s">
         <v>45</v>
       </c>
@@ -2465,7 +2140,7 @@
         <v>10</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="12" s="1" spans="1:6">
+    <row customFormat="1" ht="21" r="12" s="1" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A12" s="1" t="s">
         <v>84</v>
       </c>
@@ -2482,7 +2157,7 @@
         <v>8</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="13" s="1" spans="1:6">
+    <row customFormat="1" ht="21" r="13" s="1" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A13" s="1" t="s">
         <v>103</v>
       </c>
@@ -2499,7 +2174,7 @@
         <v>10</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="14" s="1" spans="1:6">
+    <row customFormat="1" ht="21" r="14" s="1" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A14" s="1" t="s">
         <v>105</v>
       </c>
@@ -2516,7 +2191,7 @@
         <v>106</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="15" s="1" spans="1:6">
+    <row customFormat="1" ht="21" r="15" s="1" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A15" s="1" t="s">
         <v>45</v>
       </c>
@@ -2533,7 +2208,7 @@
         <v>10</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="16" s="1" spans="1:6">
+    <row customFormat="1" ht="21" r="16" s="1" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A16" s="1" t="s">
         <v>108</v>
       </c>
@@ -2550,7 +2225,7 @@
         <v>8</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="17" s="1" spans="1:5">
+    <row customFormat="1" ht="21" r="17" s="1" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A17" s="1" t="s">
         <v>109</v>
       </c>
@@ -2567,7 +2242,7 @@
         <v>10</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="18" s="1" spans="1:5">
+    <row customFormat="1" ht="21" r="18" s="1" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A18" s="1" t="s">
         <v>110</v>
       </c>
@@ -2584,7 +2259,7 @@
         <v>8</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="19" s="1" spans="1:5">
+    <row customFormat="1" ht="21" r="19" s="1" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A19" s="1" t="s">
         <v>111</v>
       </c>
@@ -2601,7 +2276,7 @@
         <v>10</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="20" s="1" spans="1:5">
+    <row customFormat="1" ht="21" r="20" s="1" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A20" s="1" t="s">
         <v>112</v>
       </c>
@@ -2618,7 +2293,7 @@
         <v>8</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="21" s="1" spans="1:5">
+    <row customFormat="1" ht="21" r="21" s="1" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A21" s="1" t="s">
         <v>95</v>
       </c>
